--- a/tables/table3c.xlsx
+++ b/tables/table3c.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -52,8 +57,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +70,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -404,12 +415,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
@@ -451,31 +470,31 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>0.935</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="D2" s="2">
-        <v>0.891</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="E2" s="2">
-        <v>0.938</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="F2" s="2">
-        <v>0.936</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="G2" s="2">
         <v>0.93</v>
       </c>
       <c r="H2" s="2">
-        <v>0.926</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="I2" s="2">
-        <v>0.889</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="J2" s="2">
-        <v>0.933</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="K2" s="2">
-        <v>0.925</v>
+        <v>0.92500000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -489,28 +508,28 @@
         <v>10</v>
       </c>
       <c r="D3" s="2">
-        <v>0.899</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="E3" s="2">
-        <v>0.948</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="F3" s="2">
         <v>0.95</v>
       </c>
       <c r="G3" s="2">
-        <v>0.934</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="H3" s="2">
-        <v>0.931</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="I3" s="2">
-        <v>0.895</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="J3" s="2">
-        <v>0.941</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="K3" s="2">
-        <v>0.927</v>
+        <v>0.92700000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -527,22 +546,22 @@
         <v>10</v>
       </c>
       <c r="E4" s="2">
-        <v>0.908</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="F4" s="2">
-        <v>0.899</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="G4" s="2">
         <v>0.878</v>
       </c>
       <c r="H4" s="2">
-        <v>0.885</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="I4" s="2">
-        <v>0.952</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="J4" s="2">
-        <v>0.897</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="K4" s="2">
         <v>0.878</v>
@@ -565,22 +584,22 @@
         <v>10</v>
       </c>
       <c r="F5" s="2">
-        <v>0.953</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="G5" s="2">
-        <v>0.938</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="H5" s="2">
-        <v>0.936</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="I5" s="2">
-        <v>0.905</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="J5" s="2">
-        <v>0.945</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="K5" s="2">
-        <v>0.928</v>
+        <v>0.92800000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -603,19 +622,19 @@
         <v>10</v>
       </c>
       <c r="G6" s="2">
-        <v>0.937</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="H6" s="2">
         <v>0.94</v>
       </c>
       <c r="I6" s="2">
-        <v>0.894</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="J6" s="2">
-        <v>0.941</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="K6" s="2">
-        <v>0.932</v>
+        <v>0.93200000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -641,16 +660,16 @@
         <v>10</v>
       </c>
       <c r="H7" s="2">
-        <v>0.942</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="I7" s="2">
         <v>0.872</v>
       </c>
       <c r="J7" s="2">
-        <v>0.939</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="K7" s="2">
-        <v>0.938</v>
+        <v>0.93799999999999994</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -679,13 +698,13 @@
         <v>10</v>
       </c>
       <c r="I8" s="2">
-        <v>0.888</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="J8" s="2">
-        <v>0.939</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="K8" s="2">
-        <v>0.948</v>
+        <v>0.94799999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -717,7 +736,7 @@
         <v>10</v>
       </c>
       <c r="J9" s="2">
-        <v>0.891</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="K9" s="2">
         <v>0.879</v>
@@ -755,7 +774,7 @@
         <v>10</v>
       </c>
       <c r="K10" s="2">
-        <v>0.933</v>
+        <v>0.93300000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -794,6 +813,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>